--- a/tab_exercicios.xlsx
+++ b/tab_exercicios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/CursoRutils/inst/minimal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/202104-r4ds-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AC200D-3D58-554E-8FA1-15C9A1DEA7B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F68963-EDA4-9642-B524-5125FF6D8787}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49400" yWindow="-620" windowWidth="30020" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44500" yWindow="60" windowWidth="30020" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>aula</t>
   </si>
@@ -37,6 +37,21 @@
   </si>
   <si>
     <t>extra</t>
+  </si>
+  <si>
+    <t>Exercícios de dplyr 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercícios de tidyr </t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/7-2-dplyr.html#exerc%C3%ADcios-17</t>
+  </si>
+  <si>
+    <t>não</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/7-3-tidyr.html#exerc%C3%ADcios-18</t>
   </si>
 </sst>
 </file>
@@ -399,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -426,6 +441,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/tab_exercicios.xlsx
+++ b/tab_exercicios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/202104-r4ds-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F68963-EDA4-9642-B524-5125FF6D8787}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F797A2EC-9E38-0B4E-92D5-E2A086E23374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44500" yWindow="60" windowWidth="30020" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="1060" windowWidth="27160" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>aula</t>
   </si>
@@ -48,17 +48,32 @@
     <t>https://livro.curso-r.com/7-2-dplyr.html#exerc%C3%ADcios-17</t>
   </si>
   <si>
-    <t>não</t>
-  </si>
-  <si>
     <t>https://livro.curso-r.com/7-3-tidyr.html#exerc%C3%ADcios-18</t>
+  </si>
+  <si>
+    <t>Faça um mini relatório com um gráfico mostrando a frequência das espécies dos personagens do Star Wars. Use a base "starwars" do pacote dplyr. Faça isso seguindo o modelo de organização de projetos visto na primeira aula.</t>
+  </si>
+  <si>
+    <t>https://dplyr.tidyverse.org/reference/starwars.html</t>
+  </si>
+  <si>
+    <t>nao</t>
+  </si>
+  <si>
+    <t>Reorganize alguma análise que você já fez no R seguindo o modelo de organização de projetos visto na primeira aula.</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>https://curso-r.github.io/main-r4ds-2/slides/02-organizacao-projeto.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -70,6 +85,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -92,16 +115,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -441,35 +467,66 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{6237448C-3190-FA45-A26E-C716B76A2DC5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/tab_exercicios.xlsx
+++ b/tab_exercicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/202104-r4ds-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F797A2EC-9E38-0B4E-92D5-E2A086E23374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F1C1DC-207D-B24F-A7B3-1ACD19E9FF3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="1060" windowWidth="27160" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>aula</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>https://curso-r.github.io/main-r4ds-2/slides/02-organizacao-projeto.html</t>
+  </si>
+  <si>
+    <t>Fazer uma tabela do lucro médio anual dos filmes de comédia, ação e romance (2000 a 2016)</t>
+  </si>
+  <si>
+    <t>Calcular o lucro médio por gênero do filme na base IMDB</t>
+  </si>
+  <si>
+    <t>https://github.com/curso-r/livro-material/raw/master/assets/data/imdb.rds</t>
+  </si>
+  <si>
+    <t>Fazer gráficos de dispersão do lucro vs todas as outras variáveis núméricas da base IMDB</t>
   </si>
 </sst>
 </file>
@@ -119,12 +131,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -440,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -523,6 +538,48 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{6237448C-3190-FA45-A26E-C716B76A2DC5}"/>

--- a/tab_exercicios.xlsx
+++ b/tab_exercicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/202104-r4ds-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F1C1DC-207D-B24F-A7B3-1ACD19E9FF3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5B9D7B-7B5A-E04F-B7D1-6C5A32B1DDFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="1060" windowWidth="27160" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>aula</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Fazer gráficos de dispersão do lucro vs todas as outras variáveis núméricas da base IMDB</t>
+  </si>
+  <si>
+    <t>Exercícios stringr</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/7-4-o-pacote-stringr.html#exerc%C3%ADcios-19</t>
   </si>
 </sst>
 </file>
@@ -455,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -580,6 +586,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{6237448C-3190-FA45-A26E-C716B76A2DC5}"/>

--- a/tab_exercicios.xlsx
+++ b/tab_exercicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/202104-r4ds-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5B9D7B-7B5A-E04F-B7D1-6C5A32B1DDFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8563C15-7128-2346-B9C1-3E0931C3B410}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="1060" windowWidth="27160" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>aula</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>https://livro.curso-r.com/7-4-o-pacote-stringr.html#exerc%C3%ADcios-19</t>
+  </si>
+  <si>
+    <t>Exercícios extras de stringr</t>
+  </si>
+  <si>
+    <t>https://curso-r.github.io/202104-r4ds-2/pratica/99-exercicios-extras-stringr.R</t>
   </si>
 </sst>
 </file>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -600,9 +606,24 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{6237448C-3190-FA45-A26E-C716B76A2DC5}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{503DECF8-275A-8F41-AAC5-58D1459C8BD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/tab_exercicios.xlsx
+++ b/tab_exercicios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/202104-r4ds-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8563C15-7128-2346-B9C1-3E0931C3B410}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBD7450-CCA4-5C42-B10E-6649E50CD136}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1060" windowWidth="27160" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53460" yWindow="340" windowWidth="25200" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>aula</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>https://curso-r.github.io/202104-r4ds-2/pratica/99-exercicios-extras-stringr.R</t>
+  </si>
+  <si>
+    <t>Exercícios lubridate</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/7-5-o-pacote-lubridate.html#exerc%C3%ADcios-20</t>
+  </si>
+  <si>
+    <t>forcats: leitura extra</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/7-6-forcats.html#forcats</t>
   </si>
 </sst>
 </file>
@@ -467,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -620,6 +632,34 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{6237448C-3190-FA45-A26E-C716B76A2DC5}"/>

--- a/tab_exercicios.xlsx
+++ b/tab_exercicios.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/202104-r4ds-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBD7450-CCA4-5C42-B10E-6649E50CD136}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85E195D-E439-6E40-871E-649834F32F17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53460" yWindow="340" windowWidth="25200" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>aula</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>https://livro.curso-r.com/7-6-forcats.html#forcats</t>
+  </si>
+  <si>
+    <t>Exercícios de purrr</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/10-5-exerc%C3%ADcios-22.html</t>
+  </si>
+  <si>
+    <t>https://r4ds.had.co.nz/</t>
+  </si>
+  <si>
+    <t>Exercícios do livro R for Data Science (inglês)</t>
   </si>
 </sst>
 </file>
@@ -479,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -660,6 +672,34 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{6237448C-3190-FA45-A26E-C716B76A2DC5}"/>

--- a/tab_exercicios.xlsx
+++ b/tab_exercicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/202104-r4ds-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85E195D-E439-6E40-871E-649834F32F17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EE9ED3-CBBE-A645-9D6C-D7765FC2488A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53460" yWindow="340" windowWidth="25200" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>aula</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Exercícios do livro R for Data Science (inglês)</t>
+  </si>
+  <si>
+    <t>Exercícios forcats</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/7-6-forcats.html#exerc%C3%ADcios-21</t>
   </si>
 </sst>
 </file>
@@ -491,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -674,13 +680,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -691,12 +697,26 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>

--- a/tab_exercicios.xlsx
+++ b/tab_exercicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/202104-r4ds-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EE9ED3-CBBE-A645-9D6C-D7765FC2488A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A681E0-2AF4-5D46-B92C-D98F4A998E3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53460" yWindow="340" windowWidth="25200" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>aula</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>https://livro.curso-r.com/7-6-forcats.html#exerc%C3%ADcios-21</t>
+  </si>
+  <si>
+    <t>Exercícios NSE</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/11-1-nse.html#exerc%C3%ADcios-24</t>
   </si>
 </sst>
 </file>
@@ -497,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -720,6 +726,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{6237448C-3190-FA45-A26E-C716B76A2DC5}"/>
